--- a/data/trans_orig/IP18A05-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP18A05-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2173BA94-E02C-4F23-AAFF-61109DC1E008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6815F035-0867-4218-85A3-E0339EE47E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{C136A032-BECC-4A91-AFA8-8826F88FF5CD}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{2A24B716-7875-40A0-8973-BA83007189A7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,48 +68,114 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>99,62%</t>
   </si>
   <si>
     <t>98,31%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>99,28%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>99,8%</t>
   </si>
   <si>
     <t>98,78%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>0,38%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>1,69%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
     <t>0,72%</t>
   </si>
   <si>
@@ -119,37 +185,37 @@
     <t>1,22%</t>
   </si>
   <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -197,72 +263,6 @@
     <t>2,28%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
     <t>99,44%</t>
   </si>
   <si>
@@ -320,6 +320,60 @@
     <t>Menores según su última visita al médico fue por dispensación de recetas en 2012 (Tasa respuesta: 93,33%)</t>
   </si>
   <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
     <t>99,29%</t>
   </si>
   <si>
@@ -350,46 +404,40 @@
     <t>1,73%</t>
   </si>
   <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
   </si>
   <si>
     <t>99,22%</t>
@@ -416,54 +464,6 @@
     <t>1,95%</t>
   </si>
   <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
     <t>98,89%</t>
   </si>
   <si>
@@ -521,6 +521,54 @@
     <t>Menores según su última visita al médico fue por dispensación de recetas en 2015 (Tasa respuesta: 90,4%)</t>
   </si>
   <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
     <t>99,01%</t>
   </si>
   <si>
@@ -563,22 +611,40 @@
     <t>2,38%</t>
   </si>
   <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
   </si>
   <si>
     <t>99,11%</t>
@@ -617,72 +683,6 @@
     <t>1,77%</t>
   </si>
   <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
     <t>98,58%</t>
   </si>
   <si>
@@ -740,6 +740,60 @@
     <t>Menores según su última visita al médico fue por dispensación de recetas en 2023 (Tasa respuesta: 17,76%)</t>
   </si>
   <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
     <t>93,56%</t>
   </si>
   <si>
@@ -782,28 +836,52 @@
     <t>10,05%</t>
   </si>
   <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
   </si>
   <si>
     <t>95,45%</t>
@@ -834,84 +912,6 @@
   </si>
   <si>
     <t>4,6%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
   </si>
   <si>
     <t>95,58%</t>
@@ -1357,7 +1357,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A2932E-83F3-4168-B3E1-7DB084356E73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2F68B5A-AF11-448B-832B-B506D60B57A5}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1475,10 +1475,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>273</v>
+        <v>28</v>
       </c>
       <c r="D4" s="7">
-        <v>179231</v>
+        <v>21225</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1490,10 +1490,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>265</v>
+        <v>25</v>
       </c>
       <c r="I4" s="7">
-        <v>165353</v>
+        <v>19504</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>13</v>
@@ -1505,10 +1505,10 @@
         <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>538</v>
+        <v>53</v>
       </c>
       <c r="N4" s="7">
-        <v>344584</v>
+        <v>40729</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -1529,7 +1529,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>685</v>
+        <v>961</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1559,7 +1559,7 @@
         <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>685</v>
+        <v>961</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
@@ -1577,10 +1577,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>274</v>
+        <v>29</v>
       </c>
       <c r="D6" s="7">
-        <v>179916</v>
+        <v>22186</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>15</v>
@@ -1592,10 +1592,10 @@
         <v>15</v>
       </c>
       <c r="H6" s="7">
-        <v>265</v>
+        <v>25</v>
       </c>
       <c r="I6" s="7">
-        <v>165353</v>
+        <v>19504</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>15</v>
@@ -1607,10 +1607,10 @@
         <v>15</v>
       </c>
       <c r="M6" s="7">
-        <v>539</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>345269</v>
+        <v>41690</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>15</v>
@@ -1785,10 +1785,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="D10" s="7">
-        <v>179911</v>
+        <v>179231</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>38</v>
@@ -1800,34 +1800,34 @@
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="I10" s="7">
-        <v>190167</v>
+        <v>165353</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="7">
+        <v>538</v>
+      </c>
+      <c r="N10" s="7">
+        <v>344584</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="M10" s="7">
-        <v>515</v>
-      </c>
-      <c r="N10" s="7">
-        <v>370076</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1836,49 +1836,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>1395</v>
+        <v>685</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1</v>
+      </c>
+      <c r="N11" s="7">
+        <v>685</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="7">
-        <v>3</v>
-      </c>
-      <c r="I11" s="7">
-        <v>2376</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="P11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M11" s="7">
-        <v>5</v>
-      </c>
-      <c r="N11" s="7">
-        <v>3772</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1887,10 +1887,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="D12" s="7">
-        <v>181306</v>
+        <v>179916</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>15</v>
@@ -1902,10 +1902,10 @@
         <v>15</v>
       </c>
       <c r="H12" s="7">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="I12" s="7">
-        <v>192543</v>
+        <v>165353</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>15</v>
@@ -1917,10 +1917,10 @@
         <v>15</v>
       </c>
       <c r="M12" s="7">
-        <v>520</v>
+        <v>539</v>
       </c>
       <c r="N12" s="7">
-        <v>373848</v>
+        <v>345269</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>15</v>
@@ -1934,52 +1934,52 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>28</v>
+        <v>206</v>
       </c>
       <c r="D13" s="7">
-        <v>21225</v>
+        <v>133313</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>25</v>
+        <v>207</v>
       </c>
       <c r="I13" s="7">
-        <v>19504</v>
+        <v>124577</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M13" s="7">
+        <v>413</v>
+      </c>
+      <c r="N13" s="7">
+        <v>257890</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="N13" s="7">
-        <v>40729</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -1994,16 +1994,16 @@
         <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>961</v>
+        <v>483</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2018,22 +2018,22 @@
         <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>961</v>
+        <v>483</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2042,10 +2042,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>29</v>
+        <v>207</v>
       </c>
       <c r="D15" s="7">
-        <v>22186</v>
+        <v>133796</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>15</v>
@@ -2057,10 +2057,10 @@
         <v>15</v>
       </c>
       <c r="H15" s="7">
-        <v>25</v>
+        <v>207</v>
       </c>
       <c r="I15" s="7">
-        <v>19504</v>
+        <v>124577</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>15</v>
@@ -2072,10 +2072,10 @@
         <v>15</v>
       </c>
       <c r="M15" s="7">
-        <v>54</v>
+        <v>414</v>
       </c>
       <c r="N15" s="7">
-        <v>41690</v>
+        <v>258373</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>15</v>
@@ -2089,55 +2089,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>206</v>
+        <v>266</v>
       </c>
       <c r="D16" s="7">
-        <v>133313</v>
+        <v>179911</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>207</v>
+        <v>249</v>
       </c>
       <c r="I16" s="7">
-        <v>124577</v>
+        <v>190167</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M16" s="7">
+        <v>515</v>
+      </c>
+      <c r="N16" s="7">
+        <v>370076</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M16" s="7">
-        <v>413</v>
-      </c>
-      <c r="N16" s="7">
-        <v>257890</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>68</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2146,46 +2146,46 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>483</v>
+        <v>1395</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="7">
+        <v>3</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2376</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>71</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N17" s="7">
-        <v>483</v>
+        <v>3772</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>72</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>73</v>
@@ -2197,10 +2197,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>207</v>
+        <v>268</v>
       </c>
       <c r="D18" s="7">
-        <v>133796</v>
+        <v>181306</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>15</v>
@@ -2212,10 +2212,10 @@
         <v>15</v>
       </c>
       <c r="H18" s="7">
-        <v>207</v>
+        <v>252</v>
       </c>
       <c r="I18" s="7">
-        <v>124577</v>
+        <v>192543</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>15</v>
@@ -2227,10 +2227,10 @@
         <v>15</v>
       </c>
       <c r="M18" s="7">
-        <v>414</v>
+        <v>520</v>
       </c>
       <c r="N18" s="7">
-        <v>258373</v>
+        <v>373848</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>15</v>
@@ -2415,7 +2415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74C5C808-A04D-4FFD-AAE1-642E7F4970FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F6DD054-4EF9-4DCD-BB08-0B8F55A1FFEE}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2533,49 +2533,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>293</v>
+        <v>27</v>
       </c>
       <c r="D4" s="7">
-        <v>203164</v>
+        <v>24454</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="7">
+        <v>25</v>
+      </c>
+      <c r="I4" s="7">
+        <v>21503</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="7">
+        <v>52</v>
+      </c>
+      <c r="N4" s="7">
+        <v>45957</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7">
-        <v>293</v>
-      </c>
-      <c r="I4" s="7">
-        <v>189626</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="7">
-        <v>586</v>
-      </c>
-      <c r="N4" s="7">
-        <v>392789</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>97</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2584,49 +2584,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>1460</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H5" s="7">
-        <v>2</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1401</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>100</v>
-      </c>
       <c r="K5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="M5" s="7">
-        <v>4</v>
-      </c>
-      <c r="N5" s="7">
-        <v>2861</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="P5" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2635,10 +2635,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>295</v>
+        <v>27</v>
       </c>
       <c r="D6" s="7">
-        <v>204624</v>
+        <v>24454</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>15</v>
@@ -2650,10 +2650,10 @@
         <v>15</v>
       </c>
       <c r="H6" s="7">
-        <v>295</v>
+        <v>25</v>
       </c>
       <c r="I6" s="7">
-        <v>191027</v>
+        <v>21503</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>15</v>
@@ -2665,10 +2665,10 @@
         <v>15</v>
       </c>
       <c r="M6" s="7">
-        <v>590</v>
+        <v>52</v>
       </c>
       <c r="N6" s="7">
-        <v>395650</v>
+        <v>45957</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>15</v>
@@ -2694,13 +2694,13 @@
         <v>116727</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="H7" s="7">
         <v>149</v>
@@ -2709,10 +2709,10 @@
         <v>106859</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -2724,13 +2724,13 @@
         <v>223587</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2745,13 +2745,13 @@
         <v>4173</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2760,13 +2760,13 @@
         <v>736</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -2775,13 +2775,13 @@
         <v>4909</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,49 +2843,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="D10" s="7">
-        <v>199813</v>
+        <v>203164</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="I10" s="7">
-        <v>200049</v>
+        <v>189626</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>533</v>
+        <v>586</v>
       </c>
       <c r="N10" s="7">
-        <v>399862</v>
+        <v>392789</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2897,46 +2897,46 @@
         <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>1570</v>
+        <v>1460</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>1559</v>
+        <v>1401</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
       </c>
       <c r="N11" s="7">
-        <v>3129</v>
+        <v>2861</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2945,10 +2945,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="D12" s="7">
-        <v>201383</v>
+        <v>204624</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>15</v>
@@ -2960,10 +2960,10 @@
         <v>15</v>
       </c>
       <c r="H12" s="7">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="I12" s="7">
-        <v>201608</v>
+        <v>191027</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>15</v>
@@ -2975,10 +2975,10 @@
         <v>15</v>
       </c>
       <c r="M12" s="7">
-        <v>537</v>
+        <v>590</v>
       </c>
       <c r="N12" s="7">
-        <v>402991</v>
+        <v>395650</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>15</v>
@@ -2992,55 +2992,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>27</v>
+        <v>237</v>
       </c>
       <c r="D13" s="7">
-        <v>24454</v>
+        <v>154921</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>218</v>
+      </c>
+      <c r="I13" s="7">
+        <v>140146</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M13" s="7">
+        <v>455</v>
+      </c>
+      <c r="N13" s="7">
+        <v>295067</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="7">
-        <v>25</v>
-      </c>
-      <c r="I13" s="7">
-        <v>21503</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M13" s="7">
-        <v>52</v>
-      </c>
-      <c r="N13" s="7">
-        <v>45957</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>126</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3049,49 +3049,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>674</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="G14" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H14" s="7">
+        <v>3</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1917</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>2591</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3100,10 +3100,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>27</v>
+        <v>238</v>
       </c>
       <c r="D15" s="7">
-        <v>24454</v>
+        <v>155595</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>15</v>
@@ -3115,10 +3115,10 @@
         <v>15</v>
       </c>
       <c r="H15" s="7">
-        <v>25</v>
+        <v>221</v>
       </c>
       <c r="I15" s="7">
-        <v>21503</v>
+        <v>142063</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>15</v>
@@ -3130,10 +3130,10 @@
         <v>15</v>
       </c>
       <c r="M15" s="7">
-        <v>52</v>
+        <v>459</v>
       </c>
       <c r="N15" s="7">
-        <v>45957</v>
+        <v>297658</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>15</v>
@@ -3147,55 +3147,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>237</v>
+        <v>271</v>
       </c>
       <c r="D16" s="7">
-        <v>154921</v>
+        <v>199813</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>218</v>
+        <v>262</v>
       </c>
       <c r="I16" s="7">
-        <v>140146</v>
+        <v>200049</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>455</v>
+        <v>533</v>
       </c>
       <c r="N16" s="7">
-        <v>295067</v>
+        <v>399862</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>133</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3204,46 +3204,46 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>674</v>
+        <v>1570</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>1917</v>
+        <v>1559</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>137</v>
+        <v>67</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
       </c>
       <c r="N17" s="7">
-        <v>2591</v>
+        <v>3129</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>140</v>
@@ -3255,10 +3255,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="D18" s="7">
-        <v>155595</v>
+        <v>201383</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>15</v>
@@ -3270,10 +3270,10 @@
         <v>15</v>
       </c>
       <c r="H18" s="7">
-        <v>221</v>
+        <v>264</v>
       </c>
       <c r="I18" s="7">
-        <v>142063</v>
+        <v>201608</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>15</v>
@@ -3285,10 +3285,10 @@
         <v>15</v>
       </c>
       <c r="M18" s="7">
-        <v>459</v>
+        <v>537</v>
       </c>
       <c r="N18" s="7">
-        <v>297658</v>
+        <v>402991</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>15</v>
@@ -3473,7 +3473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4DB314C-32EE-4B8E-AC41-3AFD7924D4ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{292DEA05-CB82-4671-9397-02FD92202B3C}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3591,49 +3591,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>306</v>
+        <v>30</v>
       </c>
       <c r="D4" s="7">
-        <v>206658</v>
+        <v>25574</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="7">
+        <v>20</v>
+      </c>
+      <c r="I4" s="7">
+        <v>19083</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="H4" s="7">
-        <v>306</v>
-      </c>
-      <c r="I4" s="7">
-        <v>190335</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>50</v>
+      </c>
+      <c r="N4" s="7">
+        <v>44657</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="M4" s="7">
-        <v>612</v>
-      </c>
-      <c r="N4" s="7">
-        <v>396993</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>166</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3642,49 +3642,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>2072</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H5" s="7">
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1764</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>2</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1764</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="H5" s="7">
-        <v>5</v>
-      </c>
-      <c r="I5" s="7">
-        <v>2983</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="M5" s="7">
-        <v>8</v>
-      </c>
-      <c r="N5" s="7">
-        <v>5055</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3693,10 +3693,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>309</v>
+        <v>30</v>
       </c>
       <c r="D6" s="7">
-        <v>208730</v>
+        <v>25574</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>15</v>
@@ -3708,10 +3708,10 @@
         <v>15</v>
       </c>
       <c r="H6" s="7">
-        <v>311</v>
+        <v>22</v>
       </c>
       <c r="I6" s="7">
-        <v>193318</v>
+        <v>20847</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>15</v>
@@ -3723,10 +3723,10 @@
         <v>15</v>
       </c>
       <c r="M6" s="7">
-        <v>620</v>
+        <v>52</v>
       </c>
       <c r="N6" s="7">
-        <v>402048</v>
+        <v>46421</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>15</v>
@@ -3755,7 +3755,7 @@
         <v>80</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -3770,7 +3770,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>15</v>
@@ -3785,7 +3785,7 @@
         <v>82</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -3809,7 +3809,7 @@
         <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3824,7 +3824,7 @@
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -3839,7 +3839,7 @@
         <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3901,49 +3901,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>254</v>
+        <v>306</v>
       </c>
       <c r="D10" s="7">
-        <v>180724</v>
+        <v>206658</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H10" s="7">
+        <v>306</v>
+      </c>
+      <c r="I10" s="7">
+        <v>190335</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="L10" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="M10" s="7">
+        <v>612</v>
+      </c>
+      <c r="N10" s="7">
+        <v>396993</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="7">
-        <v>255</v>
-      </c>
-      <c r="I10" s="7">
-        <v>187433</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" s="7">
-        <v>509</v>
-      </c>
-      <c r="N10" s="7">
-        <v>368157</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>185</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3952,49 +3952,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>1615</v>
+        <v>2072</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H11" s="7">
+        <v>5</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2983</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>772</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>8</v>
+      </c>
+      <c r="N11" s="7">
+        <v>5055</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="M11" s="7">
-        <v>3</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2387</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4003,10 +4003,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>256</v>
+        <v>309</v>
       </c>
       <c r="D12" s="7">
-        <v>182339</v>
+        <v>208730</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>15</v>
@@ -4018,10 +4018,10 @@
         <v>15</v>
       </c>
       <c r="H12" s="7">
-        <v>256</v>
+        <v>311</v>
       </c>
       <c r="I12" s="7">
-        <v>188205</v>
+        <v>193318</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>15</v>
@@ -4033,10 +4033,10 @@
         <v>15</v>
       </c>
       <c r="M12" s="7">
-        <v>512</v>
+        <v>620</v>
       </c>
       <c r="N12" s="7">
-        <v>370544</v>
+        <v>402048</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>15</v>
@@ -4050,55 +4050,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>30</v>
+        <v>208</v>
       </c>
       <c r="D13" s="7">
-        <v>25574</v>
+        <v>138088</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H13" s="7">
+        <v>224</v>
+      </c>
+      <c r="I13" s="7">
+        <v>134097</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="7">
-        <v>20</v>
-      </c>
-      <c r="I13" s="7">
-        <v>19083</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>432</v>
+      </c>
+      <c r="N13" s="7">
+        <v>272185</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M13" s="7">
-        <v>50</v>
-      </c>
-      <c r="N13" s="7">
-        <v>44657</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>196</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4107,46 +4107,46 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>5185</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>22</v>
+        <v>196</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>197</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I14" s="7">
-        <v>1764</v>
+        <v>1903</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>199</v>
       </c>
       <c r="M14" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N14" s="7">
-        <v>1764</v>
+        <v>7088</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>200</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>201</v>
@@ -4158,10 +4158,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>30</v>
+        <v>214</v>
       </c>
       <c r="D15" s="7">
-        <v>25574</v>
+        <v>143273</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>15</v>
@@ -4173,10 +4173,10 @@
         <v>15</v>
       </c>
       <c r="H15" s="7">
-        <v>22</v>
+        <v>227</v>
       </c>
       <c r="I15" s="7">
-        <v>20847</v>
+        <v>136000</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>15</v>
@@ -4188,10 +4188,10 @@
         <v>15</v>
       </c>
       <c r="M15" s="7">
-        <v>52</v>
+        <v>441</v>
       </c>
       <c r="N15" s="7">
-        <v>46421</v>
+        <v>279273</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>15</v>
@@ -4205,46 +4205,46 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="D16" s="7">
-        <v>138088</v>
+        <v>180724</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>132</v>
+        <v>202</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>203</v>
+        <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="I16" s="7">
-        <v>134097</v>
+        <v>187433</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>75</v>
+        <v>204</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>205</v>
+        <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>432</v>
+        <v>509</v>
       </c>
       <c r="N16" s="7">
-        <v>272185</v>
+        <v>368157</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>206</v>
@@ -4253,7 +4253,7 @@
         <v>207</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4262,46 +4262,46 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>5185</v>
+        <v>1615</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>138</v>
+        <v>208</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>208</v>
+        <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>209</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>1903</v>
+        <v>772</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>85</v>
+        <v>210</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>210</v>
+        <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>211</v>
       </c>
       <c r="M17" s="7">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N17" s="7">
-        <v>7088</v>
+        <v>2387</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>212</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>213</v>
@@ -4313,10 +4313,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="D18" s="7">
-        <v>143273</v>
+        <v>182339</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>15</v>
@@ -4328,10 +4328,10 @@
         <v>15</v>
       </c>
       <c r="H18" s="7">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="I18" s="7">
-        <v>136000</v>
+        <v>188205</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>15</v>
@@ -4343,10 +4343,10 @@
         <v>15</v>
       </c>
       <c r="M18" s="7">
-        <v>441</v>
+        <v>512</v>
       </c>
       <c r="N18" s="7">
-        <v>279273</v>
+        <v>370544</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>15</v>
@@ -4531,7 +4531,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B36C6736-B7EB-46AD-BAA6-66592DAFD6E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEBE75B8-B651-421B-86F2-4B55D22A48C6}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4649,49 +4649,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>45486</v>
+        <v>4670</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="7">
+        <v>6</v>
+      </c>
+      <c r="I4" s="7">
+        <v>3976</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="H4" s="7">
-        <v>46</v>
-      </c>
-      <c r="I4" s="7">
-        <v>29095</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>12</v>
+      </c>
+      <c r="N4" s="7">
+        <v>8646</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="7">
-        <v>116</v>
-      </c>
-      <c r="N4" s="7">
-        <v>74581</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>238</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>239</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4700,49 +4700,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>3132</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>587</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>587</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="M5" s="7">
-        <v>4</v>
-      </c>
-      <c r="N5" s="7">
-        <v>3132</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4751,10 +4751,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="D6" s="7">
-        <v>48618</v>
+        <v>4670</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>15</v>
@@ -4766,10 +4766,10 @@
         <v>15</v>
       </c>
       <c r="H6" s="7">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="I6" s="7">
-        <v>29095</v>
+        <v>4563</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>15</v>
@@ -4781,10 +4781,10 @@
         <v>15</v>
       </c>
       <c r="M6" s="7">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="N6" s="7">
-        <v>77713</v>
+        <v>9233</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>15</v>
@@ -4813,7 +4813,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>15</v>
@@ -4825,10 +4825,10 @@
         <v>11830</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -4840,10 +4840,10 @@
         <v>27714</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -4867,7 +4867,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -4876,13 +4876,13 @@
         <v>507</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4891,13 +4891,13 @@
         <v>507</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4959,49 +4959,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="D10" s="7">
-        <v>27401</v>
+        <v>45486</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H10" s="7">
+        <v>46</v>
+      </c>
+      <c r="I10" s="7">
+        <v>29095</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="K10" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="7">
+        <v>116</v>
+      </c>
+      <c r="N10" s="7">
+        <v>74581</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="7">
-        <v>41</v>
-      </c>
-      <c r="I10" s="7">
-        <v>28065</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" s="7">
-        <v>82</v>
-      </c>
-      <c r="N10" s="7">
-        <v>55466</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5010,46 +5010,46 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>3132</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>20</v>
+        <v>258</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>259</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>260</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>542</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>4</v>
+      </c>
+      <c r="N11" s="7">
+        <v>3132</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>542</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>264</v>
@@ -5061,10 +5061,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="D12" s="7">
-        <v>27401</v>
+        <v>48618</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>15</v>
@@ -5076,10 +5076,10 @@
         <v>15</v>
       </c>
       <c r="H12" s="7">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I12" s="7">
-        <v>28607</v>
+        <v>29095</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>15</v>
@@ -5091,10 +5091,10 @@
         <v>15</v>
       </c>
       <c r="M12" s="7">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="N12" s="7">
-        <v>56008</v>
+        <v>77713</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>15</v>
@@ -5108,55 +5108,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="D13" s="7">
-        <v>4670</v>
+        <v>27392</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="H13" s="7">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="I13" s="7">
-        <v>3976</v>
+        <v>24084</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="N13" s="7">
-        <v>8646</v>
+        <v>51475</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>13</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5165,49 +5165,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>2460</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>20</v>
+        <v>273</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>587</v>
+        <v>1237</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N14" s="7">
-        <v>587</v>
+        <v>3698</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>20</v>
+        <v>279</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5216,10 +5216,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="D15" s="7">
-        <v>4670</v>
+        <v>29852</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>15</v>
@@ -5231,10 +5231,10 @@
         <v>15</v>
       </c>
       <c r="H15" s="7">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="I15" s="7">
-        <v>4563</v>
+        <v>25321</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>15</v>
@@ -5246,10 +5246,10 @@
         <v>15</v>
       </c>
       <c r="M15" s="7">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="N15" s="7">
-        <v>9233</v>
+        <v>55173</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>15</v>
@@ -5263,55 +5263,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D16" s="7">
-        <v>27392</v>
+        <v>27401</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>275</v>
+        <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>277</v>
+        <v>15</v>
       </c>
       <c r="H16" s="7">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I16" s="7">
-        <v>24084</v>
+        <v>28065</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="N16" s="7">
-        <v>51475</v>
+        <v>55466</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>282</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5320,46 +5320,46 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>2460</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>283</v>
+        <v>20</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>284</v>
+        <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>1237</v>
+        <v>542</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M17" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>3698</v>
+        <v>542</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>289</v>
+        <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>290</v>
@@ -5371,10 +5371,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D18" s="7">
-        <v>29852</v>
+        <v>27401</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>15</v>
@@ -5386,10 +5386,10 @@
         <v>15</v>
       </c>
       <c r="H18" s="7">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I18" s="7">
-        <v>25321</v>
+        <v>28607</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>15</v>
@@ -5401,10 +5401,10 @@
         <v>15</v>
       </c>
       <c r="M18" s="7">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="N18" s="7">
-        <v>55173</v>
+        <v>56008</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>15</v>

--- a/data/trans_orig/IP18A05-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP18A05-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6815F035-0867-4218-85A3-E0339EE47E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{11630445-FC4A-4C5C-9A8D-D533B565E623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{2A24B716-7875-40A0-8973-BA83007189A7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4EEAE5BD-0E71-400F-9968-5D96A49F72AE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="300">
   <si>
     <t>Menores según su última visita al médico fue por dispensación de recetas en 2007 (Tasa respuesta: 86,98%)</t>
   </si>
@@ -71,13 +71,37 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
     <t>95,67%</t>
   </si>
   <si>
-    <t>78,92%</t>
+    <t>79,27%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -92,73 +116,64 @@
     <t>97,69%</t>
   </si>
   <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
+    <t>90,69%</t>
   </si>
   <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
     <t>98,82%</t>
   </si>
   <si>
     <t>98,61%</t>
   </si>
   <si>
-    <t>95,65%</t>
+    <t>95,64%</t>
   </si>
   <si>
     <t>99,34%</t>
   </si>
   <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
+    <t>97,38%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
     <t>99,62%</t>
   </si>
   <si>
-    <t>98,31%</t>
+    <t>98,09%</t>
   </si>
   <si>
     <t>99,28%</t>
@@ -167,579 +182,594 @@
     <t>99,8%</t>
   </si>
   <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por dispensación de recetas en 2012 (Tasa respuesta: 93,33%)</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por dispensación de recetas en 2015 (Tasa respuesta: 90,4%)</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
     <t>98,78%</t>
   </si>
   <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por dispensación de recetas en 2012 (Tasa respuesta: 93,33%)</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por dispensación de recetas en 2015 (Tasa respuesta: 90,4%)</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
   </si>
   <si>
     <t>99,11%</t>
   </si>
   <si>
-    <t>97,23%</t>
+    <t>97,15%</t>
   </si>
   <si>
     <t>99,59%</t>
   </si>
   <si>
-    <t>97,93%</t>
+    <t>97,73%</t>
   </si>
   <si>
     <t>99,36%</t>
   </si>
   <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
   </si>
   <si>
     <t>98,58%</t>
   </si>
   <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
   </si>
   <si>
     <t>98,84%</t>
   </si>
   <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
+    <t>97,98%</t>
   </si>
   <si>
     <t>98,71%</t>
   </si>
   <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
   </si>
   <si>
     <t>Menores según su última visita al médico fue por dispensación de recetas en 2023 (Tasa respuesta: 17,76%)</t>
   </si>
   <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
     <t>73,58%</t>
   </si>
   <si>
@@ -755,52 +785,49 @@
     <t>71,68%</t>
   </si>
   <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
   </si>
   <si>
     <t>95,89%</t>
   </si>
   <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
   </si>
   <si>
     <t>93,56%</t>
   </si>
   <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
   </si>
   <si>
     <t>95,93%</t>
@@ -809,163 +836,109 @@
     <t>95,97%</t>
   </si>
   <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
   </si>
   <si>
     <t>91,76%</t>
   </si>
   <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
+    <t>74,78%</t>
   </si>
   <si>
     <t>95,11%</t>
   </si>
   <si>
-    <t>82,86%</t>
+    <t>83,64%</t>
   </si>
   <si>
     <t>93,3%</t>
   </si>
   <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
   </si>
   <si>
     <t>95,45%</t>
   </si>
   <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
+    <t>89,75%</t>
   </si>
   <si>
     <t>99,03%</t>
   </si>
   <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
   </si>
   <si>
     <t>95,58%</t>
   </si>
   <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
+    <t>91,02%</t>
   </si>
   <si>
     <t>97,12%</t>
   </si>
   <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
     <t>96,26%</t>
   </si>
   <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
   </si>
 </sst>
 </file>
@@ -976,7 +949,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1072,39 +1045,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1156,7 +1129,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1267,13 +1240,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1282,6 +1248,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1346,19 +1319,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2F68B5A-AF11-448B-832B-B506D60B57A5}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49405A8E-509D-45E5-A61C-E873543137A9}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1475,10 +1468,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>21225</v>
+        <v>961</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1490,13 +1483,13 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>19504</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
@@ -1505,19 +1498,19 @@
         <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>40729</v>
+        <v>961</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1526,10 +1519,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D5" s="7">
-        <v>961</v>
+        <v>21225</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1541,13 +1534,13 @@
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>19504</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>22</v>
@@ -1556,19 +1549,19 @@
         <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="N5" s="7">
-        <v>961</v>
+        <v>40729</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1583,13 +1576,13 @@
         <v>22186</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
         <v>25</v>
@@ -1598,13 +1591,13 @@
         <v>19504</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>54</v>
@@ -1613,13 +1606,13 @@
         <v>41690</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1630,49 +1623,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>106811</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="H7" s="7">
-        <v>140</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>94004</v>
+        <v>1327</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>28</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M7" s="7">
-        <v>301</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>200815</v>
+        <v>1327</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>30</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1681,49 +1674,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>106811</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="I8" s="7">
-        <v>1327</v>
+        <v>94004</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>33</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>301</v>
       </c>
       <c r="N8" s="7">
-        <v>1327</v>
+        <v>200815</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>35</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1738,13 +1731,13 @@
         <v>106811</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
         <v>142</v>
@@ -1753,13 +1746,13 @@
         <v>95331</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>303</v>
@@ -1768,13 +1761,13 @@
         <v>202142</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1785,49 +1778,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>273</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>179231</v>
+        <v>685</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>38</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H10" s="7">
-        <v>265</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>165353</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="M10" s="7">
-        <v>538</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>344584</v>
+        <v>685</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>41</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1836,49 +1829,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>273</v>
       </c>
       <c r="D11" s="7">
-        <v>685</v>
+        <v>179231</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>43</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>265</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>165353</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>538</v>
       </c>
       <c r="N11" s="7">
-        <v>685</v>
+        <v>344584</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>46</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1893,13 +1886,13 @@
         <v>179916</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
         <v>265</v>
@@ -1908,13 +1901,13 @@
         <v>165353</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>539</v>
@@ -1923,13 +1916,13 @@
         <v>345269</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1940,49 +1933,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>206</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>133313</v>
+        <v>483</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" s="7">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>124577</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="M13" s="7">
-        <v>413</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>257890</v>
+        <v>483</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>52</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1991,49 +1984,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>206</v>
       </c>
       <c r="D14" s="7">
-        <v>483</v>
+        <v>133313</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>54</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>124577</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>413</v>
       </c>
       <c r="N14" s="7">
-        <v>483</v>
+        <v>257890</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>57</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2048,13 +2041,13 @@
         <v>133796</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
         <v>207</v>
@@ -2063,13 +2056,13 @@
         <v>124577</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>414</v>
@@ -2078,13 +2071,13 @@
         <v>258373</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2095,25 +2088,25 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>266</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>179911</v>
+        <v>1395</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>60</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H16" s="7">
-        <v>249</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>190167</v>
+        <v>2376</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>62</v>
@@ -2125,10 +2118,10 @@
         <v>64</v>
       </c>
       <c r="M16" s="7">
-        <v>515</v>
+        <v>5</v>
       </c>
       <c r="N16" s="7">
-        <v>370076</v>
+        <v>3772</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>65</v>
@@ -2137,7 +2130,7 @@
         <v>66</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2146,49 +2139,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>266</v>
       </c>
       <c r="D17" s="7">
-        <v>1395</v>
+        <v>179911</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>249</v>
       </c>
       <c r="I17" s="7">
-        <v>2376</v>
+        <v>190167</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M17" s="7">
-        <v>5</v>
+        <v>515</v>
       </c>
       <c r="N17" s="7">
-        <v>3772</v>
+        <v>370076</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2203,13 +2196,13 @@
         <v>181306</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H18" s="7">
         <v>252</v>
@@ -2218,13 +2211,13 @@
         <v>192543</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>520</v>
@@ -2233,13 +2226,13 @@
         <v>373848</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2250,49 +2243,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>934</v>
+        <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>620489</v>
+        <v>3525</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H19" s="7">
-        <v>886</v>
+        <v>5</v>
       </c>
       <c r="I19" s="7">
-        <v>593603</v>
+        <v>3704</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M19" s="7">
-        <v>1820</v>
+        <v>10</v>
       </c>
       <c r="N19" s="7">
-        <v>1214094</v>
+        <v>7228</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2301,25 +2294,25 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>5</v>
+        <v>934</v>
       </c>
       <c r="D20" s="7">
-        <v>3525</v>
+        <v>620489</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="H20" s="7">
-        <v>5</v>
+        <v>886</v>
       </c>
       <c r="I20" s="7">
-        <v>3704</v>
+        <v>593603</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>86</v>
@@ -2331,10 +2324,10 @@
         <v>88</v>
       </c>
       <c r="M20" s="7">
-        <v>10</v>
+        <v>1820</v>
       </c>
       <c r="N20" s="7">
-        <v>7228</v>
+        <v>1214094</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>89</v>
@@ -2358,13 +2351,13 @@
         <v>624014</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H21" s="7">
         <v>891</v>
@@ -2373,13 +2366,13 @@
         <v>597307</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M21" s="7">
         <v>1830</v>
@@ -2388,13 +2381,18 @@
         <v>1221322</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2415,8 +2413,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F6DD054-4EF9-4DCD-BB08-0B8F55A1FFEE}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8AB7764-5F57-491C-96ED-2B811BF5030A}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2432,7 +2430,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2533,28 +2531,28 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>24454</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="H4" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>21503</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
@@ -2563,19 +2561,19 @@
         <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>45957</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2584,28 +2582,28 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>24454</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>21503</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>22</v>
@@ -2614,19 +2612,19 @@
         <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>45957</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2641,13 +2639,13 @@
         <v>24454</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
         <v>25</v>
@@ -2656,13 +2654,13 @@
         <v>21503</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>52</v>
@@ -2671,13 +2669,13 @@
         <v>45957</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2688,49 +2686,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>165</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>116727</v>
+        <v>4173</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="H7" s="7">
-        <v>149</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>106859</v>
+        <v>736</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M7" s="7">
-        <v>314</v>
+        <v>7</v>
       </c>
       <c r="N7" s="7">
-        <v>223587</v>
+        <v>4909</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2739,49 +2737,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>6</v>
+        <v>165</v>
       </c>
       <c r="D8" s="7">
-        <v>4173</v>
+        <v>116727</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>149</v>
       </c>
       <c r="I8" s="7">
-        <v>736</v>
+        <v>106859</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
-        <v>7</v>
+        <v>314</v>
       </c>
       <c r="N8" s="7">
-        <v>4909</v>
+        <v>223587</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2796,13 +2794,13 @@
         <v>120900</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
         <v>150</v>
@@ -2811,13 +2809,13 @@
         <v>107595</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>321</v>
@@ -2826,13 +2824,13 @@
         <v>228496</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,49 +2841,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>293</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>203164</v>
+        <v>1460</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="H10" s="7">
-        <v>293</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>189626</v>
+        <v>1401</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="M10" s="7">
-        <v>586</v>
+        <v>4</v>
       </c>
       <c r="N10" s="7">
-        <v>392789</v>
+        <v>2861</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2894,49 +2892,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>293</v>
       </c>
       <c r="D11" s="7">
-        <v>1460</v>
+        <v>203164</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>293</v>
       </c>
       <c r="I11" s="7">
-        <v>1401</v>
+        <v>189626</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
-        <v>4</v>
+        <v>586</v>
       </c>
       <c r="N11" s="7">
-        <v>2861</v>
+        <v>392789</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>45</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2951,13 +2949,13 @@
         <v>204624</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
         <v>295</v>
@@ -2966,13 +2964,13 @@
         <v>191027</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>590</v>
@@ -2981,13 +2979,13 @@
         <v>395650</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2998,49 +2996,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>237</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>154921</v>
+        <v>674</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="H13" s="7">
-        <v>218</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>140146</v>
+        <v>1917</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>124</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="M13" s="7">
-        <v>455</v>
+        <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>295067</v>
+        <v>2591</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3049,49 +3047,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>237</v>
       </c>
       <c r="D14" s="7">
-        <v>674</v>
+        <v>154921</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c r="H14" s="7">
-        <v>3</v>
+        <v>218</v>
       </c>
       <c r="I14" s="7">
-        <v>1917</v>
+        <v>140146</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>130</v>
       </c>
       <c r="M14" s="7">
-        <v>4</v>
+        <v>455</v>
       </c>
       <c r="N14" s="7">
-        <v>2591</v>
+        <v>295067</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3106,13 +3104,13 @@
         <v>155595</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
         <v>221</v>
@@ -3121,13 +3119,13 @@
         <v>142063</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>459</v>
@@ -3136,13 +3134,13 @@
         <v>297658</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3153,49 +3151,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>271</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>199813</v>
+        <v>1570</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="H16" s="7">
-        <v>262</v>
+        <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>200049</v>
+        <v>1559</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>60</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="M16" s="7">
-        <v>533</v>
+        <v>4</v>
       </c>
       <c r="N16" s="7">
-        <v>399862</v>
+        <v>3129</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>41</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3204,49 +3202,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>271</v>
       </c>
       <c r="D17" s="7">
-        <v>1570</v>
+        <v>199813</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>262</v>
       </c>
       <c r="I17" s="7">
-        <v>1559</v>
+        <v>200049</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="L17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="7">
+        <v>533</v>
+      </c>
+      <c r="N17" s="7">
+        <v>399862</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="M17" s="7">
-        <v>4</v>
-      </c>
-      <c r="N17" s="7">
-        <v>3129</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>137</v>
-      </c>
       <c r="P17" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3261,13 +3259,13 @@
         <v>201383</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H18" s="7">
         <v>264</v>
@@ -3276,13 +3274,13 @@
         <v>201608</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>537</v>
@@ -3291,13 +3289,13 @@
         <v>402991</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3308,40 +3306,40 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>993</v>
+        <v>11</v>
       </c>
       <c r="D19" s="7">
-        <v>699079</v>
+        <v>7877</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H19" s="7">
-        <v>947</v>
+        <v>8</v>
       </c>
       <c r="I19" s="7">
-        <v>658184</v>
+        <v>5612</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>145</v>
+        <v>66</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>146</v>
       </c>
       <c r="M19" s="7">
-        <v>1940</v>
+        <v>19</v>
       </c>
       <c r="N19" s="7">
-        <v>1357263</v>
+        <v>13489</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>147</v>
@@ -3359,10 +3357,10 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>11</v>
+        <v>993</v>
       </c>
       <c r="D20" s="7">
-        <v>7877</v>
+        <v>699079</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>150</v>
@@ -3374,10 +3372,10 @@
         <v>152</v>
       </c>
       <c r="H20" s="7">
-        <v>8</v>
+        <v>947</v>
       </c>
       <c r="I20" s="7">
-        <v>5612</v>
+        <v>658183</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>153</v>
@@ -3386,22 +3384,22 @@
         <v>154</v>
       </c>
       <c r="L20" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M20" s="7">
+        <v>1940</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1357263</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="M20" s="7">
-        <v>19</v>
-      </c>
-      <c r="N20" s="7">
-        <v>13489</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3416,28 +3414,28 @@
         <v>706956</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H21" s="7">
         <v>955</v>
       </c>
       <c r="I21" s="7">
-        <v>663796</v>
+        <v>663795</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M21" s="7">
         <v>1959</v>
@@ -3446,13 +3444,18 @@
         <v>1370752</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -3473,8 +3476,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{292DEA05-CB82-4671-9397-02FD92202B3C}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C05E53B-4E0F-4378-940F-EAB84A5D9863}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3490,7 +3493,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3591,49 +3594,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>25574</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H4" s="7">
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1764</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="7">
-        <v>20</v>
-      </c>
-      <c r="I4" s="7">
-        <v>19083</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>2</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1764</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="7">
-        <v>50</v>
-      </c>
-      <c r="N4" s="7">
-        <v>44657</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3642,49 +3645,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>25574</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7">
         <v>20</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="I5" s="7">
+        <v>19083</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="H5" s="7">
-        <v>2</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1764</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="L5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="7">
+        <v>50</v>
+      </c>
+      <c r="N5" s="7">
+        <v>44657</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="M5" s="7">
-        <v>2</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1764</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>169</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3699,13 +3702,13 @@
         <v>25574</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
         <v>22</v>
@@ -3714,13 +3717,13 @@
         <v>20847</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>52</v>
@@ -3729,13 +3732,13 @@
         <v>46421</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,49 +3749,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>147</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>109113</v>
+        <v>652</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="7">
+        <v>652</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="7">
-        <v>149</v>
-      </c>
-      <c r="I7" s="7">
-        <v>101974</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="7" t="s">
+      <c r="P7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M7" s="7">
-        <v>296</v>
-      </c>
-      <c r="N7" s="7">
-        <v>211087</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3797,49 +3800,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D8" s="7">
-        <v>652</v>
+        <v>109113</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>89</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="7">
+        <v>149</v>
+      </c>
+      <c r="I8" s="7">
+        <v>101974</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="7">
+        <v>296</v>
+      </c>
+      <c r="N8" s="7">
+        <v>211087</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="M8" s="7">
-        <v>1</v>
-      </c>
-      <c r="N8" s="7">
-        <v>652</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>175</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3854,13 +3857,13 @@
         <v>109765</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
         <v>149</v>
@@ -3869,13 +3872,13 @@
         <v>101974</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>297</v>
@@ -3884,13 +3887,13 @@
         <v>211739</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3901,40 +3904,40 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>306</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>206658</v>
+        <v>2072</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>5</v>
+      </c>
+      <c r="I10" s="7">
+        <v>2983</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="H10" s="7">
-        <v>306</v>
-      </c>
-      <c r="I10" s="7">
-        <v>190335</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="M10" s="7">
-        <v>612</v>
+        <v>8</v>
       </c>
       <c r="N10" s="7">
-        <v>396993</v>
+        <v>5055</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>181</v>
@@ -3943,7 +3946,7 @@
         <v>182</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3952,10 +3955,10 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>306</v>
       </c>
       <c r="D11" s="7">
-        <v>2072</v>
+        <v>206658</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>183</v>
@@ -3967,34 +3970,34 @@
         <v>185</v>
       </c>
       <c r="H11" s="7">
-        <v>5</v>
+        <v>306</v>
       </c>
       <c r="I11" s="7">
-        <v>2983</v>
+        <v>190335</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>186</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>89</v>
+        <v>187</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M11" s="7">
-        <v>8</v>
+        <v>612</v>
       </c>
       <c r="N11" s="7">
-        <v>5055</v>
+        <v>396993</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4009,13 +4012,13 @@
         <v>208730</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
         <v>311</v>
@@ -4024,13 +4027,13 @@
         <v>193318</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>620</v>
@@ -4039,13 +4042,13 @@
         <v>402048</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,49 +4059,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>208</v>
+        <v>6</v>
       </c>
       <c r="D13" s="7">
-        <v>138088</v>
+        <v>5185</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>124</v>
+        <v>191</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H13" s="7">
-        <v>224</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>134097</v>
+        <v>1903</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>75</v>
+        <v>194</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M13" s="7">
-        <v>432</v>
+        <v>9</v>
       </c>
       <c r="N13" s="7">
-        <v>272185</v>
+        <v>7088</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>62</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4107,49 +4110,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>6</v>
+        <v>208</v>
       </c>
       <c r="D14" s="7">
-        <v>5185</v>
+        <v>138088</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="H14" s="7">
-        <v>3</v>
+        <v>224</v>
       </c>
       <c r="I14" s="7">
-        <v>1903</v>
+        <v>134097</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>85</v>
+        <v>203</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="M14" s="7">
-        <v>9</v>
+        <v>432</v>
       </c>
       <c r="N14" s="7">
-        <v>7088</v>
+        <v>272185</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>69</v>
+        <v>207</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4164,13 +4167,13 @@
         <v>143273</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
         <v>227</v>
@@ -4179,13 +4182,13 @@
         <v>136000</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>441</v>
@@ -4194,13 +4197,13 @@
         <v>279273</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,49 +4214,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>254</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>180724</v>
+        <v>1615</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>203</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="H16" s="7">
-        <v>255</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>187433</v>
+        <v>772</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>13</v>
+        <v>212</v>
       </c>
       <c r="M16" s="7">
-        <v>509</v>
+        <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>368157</v>
+        <v>2387</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>207</v>
+        <v>52</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>52</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4262,49 +4265,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>254</v>
       </c>
       <c r="D17" s="7">
-        <v>1615</v>
+        <v>180724</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>209</v>
+        <v>21</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="I17" s="7">
-        <v>772</v>
+        <v>187433</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>20</v>
+        <v>218</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>211</v>
+        <v>21</v>
       </c>
       <c r="M17" s="7">
-        <v>3</v>
+        <v>509</v>
       </c>
       <c r="N17" s="7">
-        <v>2387</v>
+        <v>368157</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4319,13 +4322,13 @@
         <v>182339</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H18" s="7">
         <v>256</v>
@@ -4334,13 +4337,13 @@
         <v>188205</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>512</v>
@@ -4349,13 +4352,13 @@
         <v>370544</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4366,49 +4369,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>945</v>
+        <v>12</v>
       </c>
       <c r="D19" s="7">
-        <v>660156</v>
+        <v>9524</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="H19" s="7">
-        <v>954</v>
+        <v>11</v>
       </c>
       <c r="I19" s="7">
-        <v>632923</v>
+        <v>7422</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="M19" s="7">
-        <v>1899</v>
+        <v>23</v>
       </c>
       <c r="N19" s="7">
-        <v>1293079</v>
+        <v>16946</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4417,49 +4420,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>12</v>
+        <v>945</v>
       </c>
       <c r="D20" s="7">
-        <v>9524</v>
+        <v>660156</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="H20" s="7">
-        <v>11</v>
+        <v>954</v>
       </c>
       <c r="I20" s="7">
-        <v>7422</v>
+        <v>632923</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="M20" s="7">
-        <v>23</v>
+        <v>1899</v>
       </c>
       <c r="N20" s="7">
-        <v>16946</v>
+        <v>1293079</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4474,13 +4477,13 @@
         <v>669680</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H21" s="7">
         <v>965</v>
@@ -4489,13 +4492,13 @@
         <v>640345</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M21" s="7">
         <v>1922</v>
@@ -4504,13 +4507,18 @@
         <v>1310025</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -4531,8 +4539,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEBE75B8-B651-421B-86F2-4B55D22A48C6}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC610646-C87A-4E43-99BE-89D3103B6AB0}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4548,7 +4556,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4649,49 +4657,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>4670</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>3976</v>
+        <v>587</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>235</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
       <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>587</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="7">
-        <v>8646</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>237</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4700,49 +4708,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>4670</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>243</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>238</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I5" s="7">
-        <v>587</v>
+        <v>3976</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>245</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>240</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="N5" s="7">
-        <v>587</v>
+        <v>8646</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>247</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>242</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4757,13 +4765,13 @@
         <v>4670</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -4772,13 +4780,13 @@
         <v>4563</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -4787,13 +4795,13 @@
         <v>9233</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4804,49 +4812,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>15885</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="H7" s="7">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>11830</v>
+        <v>507</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>244</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>249</v>
       </c>
       <c r="M7" s="7">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>27714</v>
+        <v>507</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>245</v>
+        <v>214</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>246</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4855,49 +4863,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>15885</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="7">
         <v>20</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
       <c r="I8" s="7">
-        <v>507</v>
+        <v>11830</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>20</v>
+        <v>252</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>248</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="N8" s="7">
-        <v>507</v>
+        <v>27714</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>20</v>
+        <v>253</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>250</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4912,13 +4920,13 @@
         <v>15885</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
         <v>21</v>
@@ -4927,13 +4935,13 @@
         <v>12337</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>48</v>
@@ -4942,13 +4950,13 @@
         <v>28221</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4959,49 +4967,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>45486</v>
+        <v>3132</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="H10" s="7">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>29095</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>254</v>
+        <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>15</v>
+        <v>257</v>
       </c>
       <c r="M10" s="7">
-        <v>116</v>
+        <v>4</v>
       </c>
       <c r="N10" s="7">
-        <v>74581</v>
+        <v>3132</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>256</v>
+        <v>126</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5010,49 +5018,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="D11" s="7">
-        <v>3132</v>
+        <v>45486</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>29095</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>22</v>
+        <v>263</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="M11" s="7">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="N11" s="7">
-        <v>3132</v>
+        <v>74581</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>264</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5067,13 +5075,13 @@
         <v>48618</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
         <v>46</v>
@@ -5082,13 +5090,13 @@
         <v>29095</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>120</v>
@@ -5097,13 +5105,13 @@
         <v>77713</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5114,40 +5122,40 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>27392</v>
+        <v>2460</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>266</v>
+        <v>126</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>267</v>
       </c>
       <c r="H13" s="7">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>24084</v>
+        <v>1237</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>268</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M13" s="7">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="N13" s="7">
-        <v>51475</v>
+        <v>3698</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>270</v>
@@ -5165,10 +5173,10 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="D14" s="7">
-        <v>2460</v>
+        <v>27392</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>273</v>
@@ -5177,37 +5185,37 @@
         <v>274</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H14" s="7">
+        <v>35</v>
+      </c>
+      <c r="I14" s="7">
+        <v>24084</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1237</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="L14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="7">
+        <v>72</v>
+      </c>
+      <c r="N14" s="7">
+        <v>51475</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="M14" s="7">
-        <v>5</v>
-      </c>
-      <c r="N14" s="7">
-        <v>3698</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5222,13 +5230,13 @@
         <v>29852</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
         <v>37</v>
@@ -5237,13 +5245,13 @@
         <v>25321</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>77</v>
@@ -5252,13 +5260,13 @@
         <v>55173</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5269,49 +5277,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>27401</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
+        <v>542</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="7">
-        <v>41</v>
-      </c>
-      <c r="I16" s="7">
-        <v>28065</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>1</v>
+      </c>
+      <c r="N16" s="7">
+        <v>542</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M16" s="7">
-        <v>82</v>
-      </c>
-      <c r="N16" s="7">
-        <v>55466</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5320,49 +5328,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>27401</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>22</v>
+        <v>284</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="7">
+        <v>41</v>
+      </c>
+      <c r="I17" s="7">
+        <v>28065</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="7">
+        <v>82</v>
+      </c>
+      <c r="N17" s="7">
+        <v>55466</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7">
-        <v>542</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1</v>
-      </c>
-      <c r="N17" s="7">
-        <v>542</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>290</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5377,13 +5385,13 @@
         <v>27401</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H18" s="7">
         <v>42</v>
@@ -5392,13 +5400,13 @@
         <v>28607</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>83</v>
@@ -5407,13 +5415,13 @@
         <v>56008</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5424,49 +5432,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>181</v>
+        <v>7</v>
       </c>
       <c r="D19" s="7">
-        <v>120833</v>
+        <v>5592</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="H19" s="7">
+        <v>5</v>
+      </c>
+      <c r="I19" s="7">
+        <v>2873</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M19" s="7">
+        <v>12</v>
+      </c>
+      <c r="N19" s="7">
+        <v>8465</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="H19" s="7">
-        <v>148</v>
-      </c>
-      <c r="I19" s="7">
-        <v>97050</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="M19" s="7">
-        <v>329</v>
-      </c>
-      <c r="N19" s="7">
-        <v>217883</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5475,49 +5483,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>7</v>
+        <v>181</v>
       </c>
       <c r="D20" s="7">
-        <v>5592</v>
+        <v>120833</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>302</v>
+        <v>141</v>
       </c>
       <c r="H20" s="7">
-        <v>5</v>
+        <v>148</v>
       </c>
       <c r="I20" s="7">
-        <v>2873</v>
+        <v>97050</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>304</v>
+        <v>164</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>305</v>
+        <v>183</v>
       </c>
       <c r="M20" s="7">
-        <v>12</v>
+        <v>329</v>
       </c>
       <c r="N20" s="7">
-        <v>8465</v>
+        <v>217883</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5532,13 +5540,13 @@
         <v>126425</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H21" s="7">
         <v>153</v>
@@ -5547,13 +5555,13 @@
         <v>99923</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M21" s="7">
         <v>341</v>
@@ -5562,13 +5570,18 @@
         <v>226348</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP18A05-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP18A05-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11630445-FC4A-4C5C-9A8D-D533B565E623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC166A31-0B33-4CBB-BE57-077A121F9292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4EEAE5BD-0E71-400F-9968-5D96A49F72AE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0E3FD80D-135D-4410-B076-F8A6798788FB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="298">
   <si>
     <t>Menores según su última visita al médico fue por dispensación de recetas en 2007 (Tasa respuesta: 86,98%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -80,7 +80,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>20,73%</t>
+    <t>18,13%</t>
   </si>
   <si>
     <t>0%</t>
@@ -92,7 +92,7 @@
     <t>2,31%</t>
   </si>
   <si>
-    <t>9,31%</t>
+    <t>12,13%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,7 +101,7 @@
     <t>95,67%</t>
   </si>
   <si>
-    <t>79,27%</t>
+    <t>81,87%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -116,10 +116,10 @@
     <t>97,69%</t>
   </si>
   <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>1,18%</t>
@@ -128,13 +128,13 @@
     <t>1,39%</t>
   </si>
   <si>
-    <t>4,36%</t>
+    <t>4,43%</t>
   </si>
   <si>
     <t>0,66%</t>
   </si>
   <si>
-    <t>2,62%</t>
+    <t>2,1%</t>
   </si>
   <si>
     <t>98,82%</t>
@@ -143,22 +143,22 @@
     <t>98,61%</t>
   </si>
   <si>
-    <t>95,64%</t>
+    <t>95,57%</t>
   </si>
   <si>
     <t>99,34%</t>
   </si>
   <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,38%</t>
   </si>
   <si>
-    <t>1,91%</t>
+    <t>2,29%</t>
   </si>
   <si>
     <t>0,72%</t>
@@ -167,13 +167,13 @@
     <t>0,2%</t>
   </si>
   <si>
-    <t>1,09%</t>
+    <t>1,26%</t>
   </si>
   <si>
     <t>99,62%</t>
   </si>
   <si>
-    <t>98,09%</t>
+    <t>97,71%</t>
   </si>
   <si>
     <t>99,28%</t>
@@ -182,16 +182,16 @@
     <t>99,8%</t>
   </si>
   <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>0,36%</t>
   </si>
   <si>
-    <t>1,66%</t>
+    <t>1,8%</t>
   </si>
   <si>
     <t>0,92%</t>
@@ -200,13 +200,13 @@
     <t>0,19%</t>
   </si>
   <si>
-    <t>0,94%</t>
+    <t>0,98%</t>
   </si>
   <si>
     <t>99,64%</t>
   </si>
   <si>
-    <t>98,34%</t>
+    <t>98,2%</t>
   </si>
   <si>
     <t>99,08%</t>
@@ -215,7 +215,7 @@
     <t>99,81%</t>
   </si>
   <si>
-    <t>99,06%</t>
+    <t>99,02%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -224,7 +224,7 @@
     <t>0,77%</t>
   </si>
   <si>
-    <t>2,69%</t>
+    <t>2,72%</t>
   </si>
   <si>
     <t>1,23%</t>
@@ -233,523 +233,511 @@
     <t>0,37%</t>
   </si>
   <si>
-    <t>3,64%</t>
+    <t>3,5%</t>
   </si>
   <si>
     <t>1,01%</t>
   </si>
   <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por dispensación de recetas en 2012 (Tasa respuesta: 93,33%)</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
     <t>0,4%</t>
   </si>
   <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
   </si>
   <si>
     <t>99,6%</t>
   </si>
   <si>
-    <t>0,56%</t>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por dispensación de recetas en 2016 (Tasa respuesta: 90,4%)</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
   </si>
   <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
   </si>
   <si>
     <t>98,72%</t>
   </si>
   <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por dispensación de recetas en 2012 (Tasa respuesta: 93,33%)</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
   </si>
   <si>
     <t>4,58%</t>
   </si>
   <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
   </si>
   <si>
     <t>95,42%</t>
   </si>
   <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
   </si>
   <si>
     <t>1,98%</t>
   </si>
   <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
   </si>
   <si>
     <t>98,02%</t>
   </si>
   <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por dispensación de recetas en 2015 (Tasa respuesta: 90,4%)</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
     <t>98,71%</t>
   </si>
   <si>
     <t>98,1%</t>
   </si>
   <si>
-    <t>99,21%</t>
+    <t>99,16%</t>
   </si>
   <si>
     <t>Menores según su última visita al médico fue por dispensación de recetas en 2023 (Tasa respuesta: 17,76%)</t>
@@ -761,13 +749,13 @@
     <t>12,86%</t>
   </si>
   <si>
-    <t>61,74%</t>
+    <t>62,82%</t>
   </si>
   <si>
     <t>6,36%</t>
   </si>
   <si>
-    <t>28,32%</t>
+    <t>28,72%</t>
   </si>
   <si>
     <t>73,58%</t>
@@ -776,40 +764,40 @@
     <t>87,14%</t>
   </si>
   <si>
-    <t>38,26%</t>
+    <t>37,18%</t>
   </si>
   <si>
     <t>93,64%</t>
   </si>
   <si>
-    <t>71,68%</t>
+    <t>71,28%</t>
   </si>
   <si>
     <t>4,11%</t>
   </si>
   <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
   </si>
   <si>
     <t>95,89%</t>
   </si>
   <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
   </si>
   <si>
     <t>6,44%</t>
   </si>
   <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
   </si>
   <si>
     <t>4,07%</t>
@@ -818,16 +806,19 @@
     <t>4,03%</t>
   </si>
   <si>
-    <t>9,83%</t>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
   </si>
   <si>
     <t>93,56%</t>
   </si>
   <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
   </si>
   <si>
     <t>95,93%</t>
@@ -836,109 +827,112 @@
     <t>95,97%</t>
   </si>
   <si>
-    <t>90,17%</t>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
   </si>
   <si>
     <t>8,24%</t>
   </si>
   <si>
-    <t>25,22%</t>
+    <t>26,55%</t>
   </si>
   <si>
     <t>4,89%</t>
   </si>
   <si>
-    <t>16,36%</t>
+    <t>16,13%</t>
   </si>
   <si>
     <t>6,7%</t>
   </si>
   <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
   </si>
   <si>
     <t>91,76%</t>
   </si>
   <si>
-    <t>74,78%</t>
+    <t>73,45%</t>
   </si>
   <si>
     <t>95,11%</t>
   </si>
   <si>
-    <t>83,64%</t>
+    <t>83,87%</t>
   </si>
   <si>
     <t>93,3%</t>
   </si>
   <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
   </si>
   <si>
     <t>4,55%</t>
   </si>
   <si>
-    <t>10,25%</t>
+    <t>9,87%</t>
   </si>
   <si>
     <t>0,97%</t>
   </si>
   <si>
-    <t>5,54%</t>
+    <t>5,01%</t>
   </si>
   <si>
     <t>95,45%</t>
   </si>
   <si>
-    <t>89,75%</t>
+    <t>90,13%</t>
   </si>
   <si>
     <t>99,03%</t>
   </si>
   <si>
-    <t>94,46%</t>
+    <t>94,99%</t>
   </si>
   <si>
     <t>4,42%</t>
   </si>
   <si>
-    <t>8,98%</t>
+    <t>9,75%</t>
   </si>
   <si>
     <t>2,88%</t>
   </si>
   <si>
+    <t>6,11%</t>
+  </si>
+  <si>
     <t>3,74%</t>
   </si>
   <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
+    <t>6,74%</t>
   </si>
   <si>
     <t>95,58%</t>
   </si>
   <si>
-    <t>91,02%</t>
+    <t>90,25%</t>
   </si>
   <si>
     <t>97,12%</t>
   </si>
   <si>
+    <t>93,89%</t>
+  </si>
+  <si>
     <t>96,26%</t>
   </si>
   <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
+    <t>93,26%</t>
   </si>
 </sst>
 </file>
@@ -1350,7 +1344,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49405A8E-509D-45E5-A61C-E873543137A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{621C37A6-F5B9-469A-9629-B77E1E7B3264}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2127,10 +2121,10 @@
         <v>65</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2145,10 +2139,10 @@
         <v>179911</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>21</v>
@@ -2160,13 +2154,13 @@
         <v>190167</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M17" s="7">
         <v>515</v>
@@ -2175,13 +2169,13 @@
         <v>370076</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2249,13 +2243,13 @@
         <v>3525</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>52</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -2264,13 +2258,13 @@
         <v>3704</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -2279,13 +2273,13 @@
         <v>7228</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2300,10 +2294,10 @@
         <v>620489</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>57</v>
@@ -2315,13 +2309,13 @@
         <v>593603</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M20" s="7">
         <v>1820</v>
@@ -2330,13 +2324,13 @@
         <v>1214094</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2392,7 +2386,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2413,7 +2407,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8AB7764-5F57-491C-96ED-2B811BF5030A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE546F41-38E7-4CBD-AD3A-71C27BE3A5A0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2430,7 +2424,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2543,7 +2537,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2573,7 +2567,7 @@
         <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2591,7 +2585,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -2621,7 +2615,7 @@
         <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>23</v>
@@ -2692,13 +2686,13 @@
         <v>4173</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -2707,13 +2701,13 @@
         <v>736</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -2722,13 +2716,13 @@
         <v>4909</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2743,10 +2737,10 @@
         <v>116727</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>32</v>
@@ -2758,10 +2752,10 @@
         <v>106859</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -2773,13 +2767,13 @@
         <v>223587</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2847,13 +2841,13 @@
         <v>1460</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -2862,13 +2856,13 @@
         <v>1401</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -2880,10 +2874,10 @@
         <v>40</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2898,10 +2892,10 @@
         <v>203164</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>21</v>
@@ -2913,10 +2907,10 @@
         <v>189626</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -2931,10 +2925,10 @@
         <v>45</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3002,13 +2996,13 @@
         <v>674</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -3017,13 +3011,13 @@
         <v>1917</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -3032,13 +3026,13 @@
         <v>2591</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3053,10 +3047,10 @@
         <v>154921</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>21</v>
@@ -3068,13 +3062,13 @@
         <v>140146</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>133</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M14" s="7">
         <v>455</v>
@@ -3083,13 +3077,13 @@
         <v>295067</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3163,7 +3157,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -3178,7 +3172,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -3193,7 +3187,7 @@
         <v>41</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3208,10 +3202,10 @@
         <v>199813</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>69</v>
+        <v>141</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>21</v>
@@ -3223,10 +3217,10 @@
         <v>200049</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>21</v>
@@ -3238,10 +3232,10 @@
         <v>399862</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>46</v>
@@ -3312,13 +3306,13 @@
         <v>7877</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -3327,13 +3321,13 @@
         <v>5612</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>66</v>
+        <v>147</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M19" s="7">
         <v>19</v>
@@ -3342,10 +3336,10 @@
         <v>13489</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>147</v>
+        <v>53</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>148</v>
+        <v>76</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>149</v>
@@ -3369,7 +3363,7 @@
         <v>151</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="H20" s="7">
         <v>947</v>
@@ -3378,13 +3372,13 @@
         <v>658183</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M20" s="7">
         <v>1940</v>
@@ -3393,13 +3387,13 @@
         <v>1357263</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>156</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>157</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3455,7 +3449,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3476,7 +3470,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C05E53B-4E0F-4378-940F-EAB84A5D9863}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BFEEC7-DCF2-47F7-9B17-51140F93A11A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3493,7 +3487,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3606,7 +3600,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3615,13 +3609,13 @@
         <v>1764</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -3630,13 +3624,13 @@
         <v>1764</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3654,7 +3648,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -3666,10 +3660,10 @@
         <v>19083</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -3681,10 +3675,10 @@
         <v>44657</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -3755,13 +3749,13 @@
         <v>652</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3776,7 +3770,7 @@
         <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -3785,13 +3779,13 @@
         <v>652</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3806,10 +3800,10 @@
         <v>109113</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -3824,7 +3818,7 @@
         <v>21</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>85</v>
+        <v>172</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>23</v>
@@ -3940,13 +3934,13 @@
         <v>5055</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3961,13 +3955,13 @@
         <v>206658</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H11" s="7">
         <v>306</v>
@@ -3976,13 +3970,13 @@
         <v>190335</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M11" s="7">
         <v>612</v>
@@ -3991,13 +3985,13 @@
         <v>396993</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>189</v>
+        <v>47</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>131</v>
+        <v>188</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>190</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4065,13 +4059,13 @@
         <v>5185</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -4080,13 +4074,13 @@
         <v>1903</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -4095,13 +4089,13 @@
         <v>7088</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>197</v>
+        <v>113</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4116,13 +4110,13 @@
         <v>138088</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H14" s="7">
         <v>224</v>
@@ -4131,13 +4125,13 @@
         <v>134097</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M14" s="7">
         <v>432</v>
@@ -4146,13 +4140,13 @@
         <v>272185</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>206</v>
+        <v>119</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4220,13 +4214,13 @@
         <v>1615</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -4235,13 +4229,13 @@
         <v>772</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -4250,13 +4244,13 @@
         <v>2387</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>52</v>
+        <v>210</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4271,10 +4265,10 @@
         <v>180724</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>21</v>
@@ -4286,10 +4280,10 @@
         <v>187433</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>21</v>
@@ -4301,13 +4295,13 @@
         <v>368157</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>57</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4375,13 +4369,13 @@
         <v>9524</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>222</v>
+        <v>60</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -4390,13 +4384,13 @@
         <v>7422</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="M19" s="7">
         <v>23</v>
@@ -4405,13 +4399,13 @@
         <v>16946</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4426,13 +4420,13 @@
         <v>660156</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>231</v>
+        <v>67</v>
       </c>
       <c r="H20" s="7">
         <v>954</v>
@@ -4441,13 +4435,13 @@
         <v>632923</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="M20" s="7">
         <v>1899</v>
@@ -4456,13 +4450,13 @@
         <v>1293079</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4518,7 +4512,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -4539,7 +4533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC610646-C87A-4E43-99BE-89D3103B6AB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1022C0BF-225B-4881-8CD0-F1447C76C8C1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4556,7 +4550,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4669,7 +4663,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4678,13 +4672,13 @@
         <v>587</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4693,13 +4687,13 @@
         <v>587</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4717,7 +4711,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -4729,10 +4723,10 @@
         <v>3976</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -4744,10 +4738,10 @@
         <v>8646</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -4824,7 +4818,7 @@
         <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -4833,13 +4827,13 @@
         <v>507</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -4848,13 +4842,13 @@
         <v>507</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>214</v>
+        <v>50</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4872,7 +4866,7 @@
         <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>23</v>
@@ -4884,10 +4878,10 @@
         <v>11830</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -4899,10 +4893,10 @@
         <v>27714</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>220</v>
+        <v>55</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>21</v>
@@ -4973,13 +4967,13 @@
         <v>3132</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4994,7 +4988,7 @@
         <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -5003,13 +4997,13 @@
         <v>3132</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>126</v>
+        <v>255</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5024,13 +5018,13 @@
         <v>45486</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H11" s="7">
         <v>46</v>
@@ -5042,7 +5036,7 @@
         <v>21</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>23</v>
@@ -5054,13 +5048,13 @@
         <v>74581</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>132</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5128,13 +5122,13 @@
         <v>2460</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -5143,13 +5137,13 @@
         <v>1237</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -5158,13 +5152,13 @@
         <v>3698</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5179,13 +5173,13 @@
         <v>27392</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H14" s="7">
         <v>35</v>
@@ -5194,10 +5188,10 @@
         <v>24084</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>21</v>
@@ -5209,13 +5203,13 @@
         <v>51475</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5289,7 +5283,7 @@
         <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -5298,13 +5292,13 @@
         <v>542</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -5313,13 +5307,13 @@
         <v>542</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5337,7 +5331,7 @@
         <v>21</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>23</v>
@@ -5349,10 +5343,10 @@
         <v>28065</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>21</v>
@@ -5364,10 +5358,10 @@
         <v>55466</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>21</v>
@@ -5438,13 +5432,13 @@
         <v>5592</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -5453,13 +5447,13 @@
         <v>2873</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>175</v>
+        <v>101</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>159</v>
+        <v>289</v>
       </c>
       <c r="M19" s="7">
         <v>12</v>
@@ -5468,13 +5462,13 @@
         <v>8465</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5489,13 +5483,13 @@
         <v>120833</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="H20" s="7">
         <v>148</v>
@@ -5504,13 +5498,13 @@
         <v>97050</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>164</v>
+        <v>295</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>183</v>
+        <v>109</v>
       </c>
       <c r="M20" s="7">
         <v>329</v>
@@ -5519,13 +5513,13 @@
         <v>217883</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>298</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>299</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5581,7 +5575,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP18A05-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP18A05-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC166A31-0B33-4CBB-BE57-077A121F9292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{992996DB-B627-4D5C-AFF9-45DAA4944960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0E3FD80D-135D-4410-B076-F8A6798788FB}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{C98295AB-AC23-4750-BD6A-CA9B290E1DA2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="269">
   <si>
     <t>Menores según su última visita al médico fue por dispensación de recetas en 2007 (Tasa respuesta: 86,98%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,871 +68,784 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>4,33%</t>
+    <t>1,16%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>18,13%</t>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por dispensación de recetas en 2012 (Tasa respuesta: 93,33%)</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por dispensación de recetas en 2016 (Tasa respuesta: 90,4%)</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por dispensación de recetas en 2023 (Tasa respuesta: 17,76%)</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
   </si>
   <si>
     <t>2,1%</t>
   </si>
   <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
   </si>
   <si>
     <t>97,9%</t>
   </si>
   <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por dispensación de recetas en 2012 (Tasa respuesta: 93,33%)</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
   </si>
   <si>
     <t>1,94%</t>
   </si>
   <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
   </si>
   <si>
     <t>98,06%</t>
   </si>
   <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por dispensación de recetas en 2016 (Tasa respuesta: 90,4%)</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por dispensación de recetas en 2023 (Tasa respuesta: 17,76%)</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
   </si>
 </sst>
 </file>
@@ -1344,8 +1257,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{621C37A6-F5B9-469A-9629-B77E1E7B3264}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA8AB50-3D4A-4520-BD47-0F71B0F24A44}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1462,10 +1375,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>961</v>
+        <v>1327</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1477,85 +1390,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>961</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>961</v>
+        <v>2288</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>28</v>
+        <v>165</v>
       </c>
       <c r="D5" s="7">
-        <v>21225</v>
+        <v>113507</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
+        <v>189</v>
+      </c>
+      <c r="I5" s="7">
+        <v>128036</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="7">
+        <v>354</v>
+      </c>
+      <c r="N5" s="7">
+        <v>241544</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="7">
-        <v>19504</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="7">
-        <v>53</v>
-      </c>
-      <c r="N5" s="7">
-        <v>40729</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1564,54 +1477,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>29</v>
+        <v>167</v>
       </c>
       <c r="D6" s="7">
-        <v>22186</v>
+        <v>114834</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>25</v>
+        <v>190</v>
       </c>
       <c r="I6" s="7">
-        <v>19504</v>
+        <v>128997</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>54</v>
+        <v>357</v>
       </c>
       <c r="N6" s="7">
-        <v>41690</v>
+        <v>243832</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1626,91 +1539,91 @@
         <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>1327</v>
+        <v>685</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>1327</v>
+        <v>685</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>161</v>
+        <v>265</v>
       </c>
       <c r="D8" s="7">
-        <v>106811</v>
+        <v>165353</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H8" s="7">
-        <v>140</v>
+        <v>273</v>
       </c>
       <c r="I8" s="7">
-        <v>94004</v>
+        <v>179231</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M8" s="7">
-        <v>301</v>
+        <v>538</v>
       </c>
       <c r="N8" s="7">
-        <v>200815</v>
+        <v>344584</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1719,153 +1632,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>161</v>
+        <v>265</v>
       </c>
       <c r="D9" s="7">
-        <v>106811</v>
+        <v>165353</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>142</v>
+        <v>274</v>
       </c>
       <c r="I9" s="7">
-        <v>95331</v>
+        <v>179916</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>303</v>
+        <v>539</v>
       </c>
       <c r="N9" s="7">
-        <v>202142</v>
+        <v>345269</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="7">
         <v>1</v>
       </c>
-      <c r="D10" s="7">
-        <v>685</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="I10" s="7">
+        <v>483</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>685</v>
+        <v>483</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>273</v>
+        <v>207</v>
       </c>
       <c r="D11" s="7">
-        <v>179231</v>
+        <v>124577</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H11" s="7">
-        <v>265</v>
+        <v>206</v>
       </c>
       <c r="I11" s="7">
-        <v>165353</v>
+        <v>133313</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M11" s="7">
-        <v>538</v>
+        <v>413</v>
       </c>
       <c r="N11" s="7">
-        <v>344584</v>
+        <v>257890</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1874,153 +1787,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>274</v>
+        <v>207</v>
       </c>
       <c r="D12" s="7">
-        <v>179916</v>
+        <v>124577</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>265</v>
+        <v>207</v>
       </c>
       <c r="I12" s="7">
-        <v>165353</v>
+        <v>133796</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>539</v>
+        <v>414</v>
       </c>
       <c r="N12" s="7">
-        <v>345269</v>
+        <v>258373</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>483</v>
+        <v>2376</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="7">
+        <v>2</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1395</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N13" s="7">
-        <v>483</v>
+        <v>3772</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>206</v>
+        <v>249</v>
       </c>
       <c r="D14" s="7">
-        <v>133313</v>
+        <v>190167</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="H14" s="7">
-        <v>207</v>
+        <v>266</v>
       </c>
       <c r="I14" s="7">
-        <v>124577</v>
+        <v>179911</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M14" s="7">
-        <v>413</v>
+        <v>515</v>
       </c>
       <c r="N14" s="7">
-        <v>257890</v>
+        <v>370076</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2029,153 +1942,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>207</v>
+        <v>252</v>
       </c>
       <c r="D15" s="7">
-        <v>133796</v>
+        <v>192543</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>207</v>
+        <v>268</v>
       </c>
       <c r="I15" s="7">
-        <v>124577</v>
+        <v>181306</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>414</v>
+        <v>520</v>
       </c>
       <c r="N15" s="7">
-        <v>258373</v>
+        <v>373848</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>1395</v>
+        <v>3704</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I16" s="7">
-        <v>2376</v>
+        <v>3525</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="M16" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N16" s="7">
-        <v>3772</v>
+        <v>7228</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>266</v>
+        <v>886</v>
       </c>
       <c r="D17" s="7">
-        <v>179911</v>
+        <v>593603</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H17" s="7">
-        <v>249</v>
+        <v>934</v>
       </c>
       <c r="I17" s="7">
-        <v>190167</v>
+        <v>620489</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="M17" s="7">
-        <v>515</v>
+        <v>1820</v>
       </c>
       <c r="N17" s="7">
-        <v>370076</v>
+        <v>1214094</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2184,217 +2097,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>268</v>
+        <v>891</v>
       </c>
       <c r="D18" s="7">
-        <v>181306</v>
+        <v>597307</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
-        <v>252</v>
+        <v>939</v>
       </c>
       <c r="I18" s="7">
-        <v>192543</v>
+        <v>624014</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
-        <v>520</v>
+        <v>1830</v>
       </c>
       <c r="N18" s="7">
-        <v>373848</v>
+        <v>1221322</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>5</v>
-      </c>
-      <c r="D19" s="7">
-        <v>3525</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H19" s="7">
-        <v>5</v>
-      </c>
-      <c r="I19" s="7">
-        <v>3704</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="M19" s="7">
-        <v>10</v>
-      </c>
-      <c r="N19" s="7">
-        <v>7228</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>934</v>
-      </c>
-      <c r="D20" s="7">
-        <v>620489</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="A19" t="s">
         <v>83</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H20" s="7">
-        <v>886</v>
-      </c>
-      <c r="I20" s="7">
-        <v>593603</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1820</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1214094</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>939</v>
-      </c>
-      <c r="D21" s="7">
-        <v>624014</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>891</v>
-      </c>
-      <c r="I21" s="7">
-        <v>597307</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1830</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1221322</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>90</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2407,8 +2164,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE546F41-38E7-4CBD-AD3A-71C27BE3A5A0}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A33C5804-B1AD-4493-9087-3D7F7BA99406}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2424,7 +2181,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2525,100 +2282,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>736</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>4173</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>4909</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>27</v>
+        <v>174</v>
       </c>
       <c r="D5" s="7">
-        <v>24454</v>
+        <v>128362</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="7">
+        <v>192</v>
+      </c>
+      <c r="I5" s="7">
+        <v>141182</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="7">
-        <v>25</v>
-      </c>
-      <c r="I5" s="7">
-        <v>21503</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="M5" s="7">
-        <v>52</v>
+        <v>366</v>
       </c>
       <c r="N5" s="7">
-        <v>45957</v>
+        <v>269544</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2627,153 +2384,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="D6" s="7">
-        <v>24454</v>
+        <v>129098</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="I6" s="7">
-        <v>21503</v>
+        <v>145355</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>52</v>
+        <v>373</v>
       </c>
       <c r="N6" s="7">
-        <v>45957</v>
+        <v>274453</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>4173</v>
+        <v>1401</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>736</v>
+        <v>1460</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M7" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>4909</v>
+        <v>2861</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>165</v>
+        <v>293</v>
       </c>
       <c r="D8" s="7">
-        <v>116727</v>
+        <v>189626</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="H8" s="7">
-        <v>149</v>
+        <v>293</v>
       </c>
       <c r="I8" s="7">
-        <v>106859</v>
+        <v>203164</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M8" s="7">
-        <v>314</v>
+        <v>586</v>
       </c>
       <c r="N8" s="7">
-        <v>223587</v>
+        <v>392789</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>107</v>
+        <v>36</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>108</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>109</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2782,153 +2539,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>171</v>
+        <v>295</v>
       </c>
       <c r="D9" s="7">
-        <v>120900</v>
+        <v>191027</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>150</v>
+        <v>295</v>
       </c>
       <c r="I9" s="7">
-        <v>107595</v>
+        <v>204624</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>321</v>
+        <v>590</v>
       </c>
       <c r="N9" s="7">
-        <v>228496</v>
+        <v>395650</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>1460</v>
+        <v>1917</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>111</v>
-      </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>1401</v>
+        <v>674</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
       </c>
       <c r="N10" s="7">
-        <v>2861</v>
+        <v>2591</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>293</v>
+        <v>218</v>
       </c>
       <c r="D11" s="7">
-        <v>203164</v>
+        <v>140146</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" s="7">
+        <v>237</v>
+      </c>
+      <c r="I11" s="7">
+        <v>154921</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="L11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="7">
+        <v>455</v>
+      </c>
+      <c r="N11" s="7">
+        <v>295067</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="7">
-        <v>293</v>
-      </c>
-      <c r="I11" s="7">
-        <v>189626</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M11" s="7">
-        <v>586</v>
-      </c>
-      <c r="N11" s="7">
-        <v>392789</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>120</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2937,153 +2694,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>295</v>
+        <v>221</v>
       </c>
       <c r="D12" s="7">
-        <v>204624</v>
+        <v>142063</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>295</v>
+        <v>238</v>
       </c>
       <c r="I12" s="7">
-        <v>191027</v>
+        <v>155595</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>590</v>
+        <v>459</v>
       </c>
       <c r="N12" s="7">
-        <v>395650</v>
+        <v>297658</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>674</v>
+        <v>1559</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>122</v>
+        <v>56</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H13" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>1917</v>
+        <v>1570</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>2591</v>
+        <v>3129</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>127</v>
+        <v>34</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="D14" s="7">
-        <v>154921</v>
+        <v>200049</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H14" s="7">
-        <v>218</v>
+        <v>271</v>
       </c>
       <c r="I14" s="7">
-        <v>140146</v>
+        <v>199813</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="M14" s="7">
-        <v>455</v>
+        <v>533</v>
       </c>
       <c r="N14" s="7">
-        <v>295067</v>
+        <v>399862</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>135</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3092,153 +2849,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="D15" s="7">
-        <v>155595</v>
+        <v>201608</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>221</v>
+        <v>273</v>
       </c>
       <c r="I15" s="7">
-        <v>142063</v>
+        <v>201383</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>459</v>
+        <v>537</v>
       </c>
       <c r="N15" s="7">
-        <v>297658</v>
+        <v>402991</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D16" s="7">
-        <v>1570</v>
+        <v>5612</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="H16" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I16" s="7">
-        <v>1559</v>
+        <v>7877</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="M16" s="7">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="N16" s="7">
-        <v>3129</v>
+        <v>13489</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>271</v>
+        <v>947</v>
       </c>
       <c r="D17" s="7">
-        <v>199813</v>
+        <v>658183</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H17" s="7">
+        <v>993</v>
+      </c>
+      <c r="I17" s="7">
+        <v>699079</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="7">
-        <v>262</v>
-      </c>
-      <c r="I17" s="7">
-        <v>200049</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>1940</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1357263</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M17" s="7">
-        <v>533</v>
-      </c>
-      <c r="N17" s="7">
-        <v>399862</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>143</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3247,217 +3004,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>273</v>
+        <v>955</v>
       </c>
       <c r="D18" s="7">
-        <v>201383</v>
+        <v>663795</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
-        <v>264</v>
+        <v>1004</v>
       </c>
       <c r="I18" s="7">
-        <v>201608</v>
+        <v>706956</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
-        <v>537</v>
+        <v>1959</v>
       </c>
       <c r="N18" s="7">
-        <v>402991</v>
+        <v>1370752</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>11</v>
-      </c>
-      <c r="D19" s="7">
-        <v>7877</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="H19" s="7">
-        <v>8</v>
-      </c>
-      <c r="I19" s="7">
-        <v>5612</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="M19" s="7">
-        <v>19</v>
-      </c>
-      <c r="N19" s="7">
-        <v>13489</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>993</v>
-      </c>
-      <c r="D20" s="7">
-        <v>699079</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H20" s="7">
-        <v>947</v>
-      </c>
-      <c r="I20" s="7">
-        <v>658183</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1940</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1357263</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1004</v>
-      </c>
-      <c r="D21" s="7">
-        <v>706956</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>955</v>
-      </c>
-      <c r="I21" s="7">
-        <v>663795</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1959</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1370752</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>90</v>
+      <c r="A19" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3470,8 +3071,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BFEEC7-DCF2-47F7-9B17-51140F93A11A}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD9B78E-4EB5-4BDF-883A-E7396FE7AEE9}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3487,7 +3088,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3588,100 +3189,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>1764</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>1764</v>
+        <v>652</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>1764</v>
+        <v>2416</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>30</v>
+        <v>169</v>
       </c>
       <c r="D5" s="7">
-        <v>25574</v>
+        <v>121057</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>152</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="I5" s="7">
-        <v>19083</v>
+        <v>134687</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
-        <v>50</v>
+        <v>346</v>
       </c>
       <c r="N5" s="7">
-        <v>44657</v>
+        <v>255744</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>165</v>
+        <v>25</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3690,153 +3291,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>30</v>
+        <v>171</v>
       </c>
       <c r="D6" s="7">
-        <v>25574</v>
+        <v>122821</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>22</v>
+        <v>178</v>
       </c>
       <c r="I6" s="7">
-        <v>20847</v>
+        <v>135339</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>52</v>
+        <v>349</v>
       </c>
       <c r="N6" s="7">
-        <v>46421</v>
+        <v>258160</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>652</v>
+        <v>2983</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>2072</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N7" s="7">
-        <v>652</v>
+        <v>5055</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>147</v>
+        <v>306</v>
       </c>
       <c r="D8" s="7">
-        <v>109113</v>
+        <v>190335</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>87</v>
+        <v>165</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="7">
+        <v>306</v>
+      </c>
+      <c r="I8" s="7">
+        <v>206658</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="M8" s="7">
+        <v>612</v>
+      </c>
+      <c r="N8" s="7">
+        <v>396993</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="7">
-        <v>149</v>
-      </c>
-      <c r="I8" s="7">
-        <v>101974</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="7">
-        <v>296</v>
-      </c>
-      <c r="N8" s="7">
-        <v>211087</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>174</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3845,54 +3446,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>148</v>
+        <v>311</v>
       </c>
       <c r="D9" s="7">
-        <v>109765</v>
+        <v>193318</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>149</v>
+        <v>309</v>
       </c>
       <c r="I9" s="7">
-        <v>101974</v>
+        <v>208730</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>297</v>
+        <v>620</v>
       </c>
       <c r="N9" s="7">
-        <v>211739</v>
+        <v>402048</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3901,97 +3502,97 @@
         <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>2072</v>
+        <v>1903</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H10" s="7">
+        <v>6</v>
+      </c>
+      <c r="I10" s="7">
+        <v>5185</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="M10" s="7">
+        <v>9</v>
+      </c>
+      <c r="N10" s="7">
+        <v>7088</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="P10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="H10" s="7">
-        <v>5</v>
-      </c>
-      <c r="I10" s="7">
-        <v>2983</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="M10" s="7">
-        <v>8</v>
-      </c>
-      <c r="N10" s="7">
-        <v>5055</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>306</v>
+        <v>224</v>
       </c>
       <c r="D11" s="7">
-        <v>206658</v>
+        <v>134097</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H11" s="7">
-        <v>306</v>
+        <v>208</v>
       </c>
       <c r="I11" s="7">
-        <v>190335</v>
+        <v>138088</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>185</v>
+        <v>114</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="M11" s="7">
-        <v>612</v>
+        <v>432</v>
       </c>
       <c r="N11" s="7">
-        <v>396993</v>
+        <v>272185</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>47</v>
+        <v>180</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4000,153 +3601,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>309</v>
+        <v>227</v>
       </c>
       <c r="D12" s="7">
-        <v>208730</v>
+        <v>136000</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>311</v>
+        <v>214</v>
       </c>
       <c r="I12" s="7">
-        <v>193318</v>
+        <v>143273</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>620</v>
+        <v>441</v>
       </c>
       <c r="N12" s="7">
-        <v>402048</v>
+        <v>279273</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>5185</v>
+        <v>772</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H13" s="7">
+        <v>2</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1615</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="7">
         <v>3</v>
       </c>
-      <c r="I13" s="7">
-        <v>1903</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="M13" s="7">
-        <v>9</v>
-      </c>
       <c r="N13" s="7">
-        <v>7088</v>
+        <v>2387</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>113</v>
+        <v>185</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>195</v>
+        <v>45</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>208</v>
+        <v>255</v>
       </c>
       <c r="D14" s="7">
-        <v>138088</v>
+        <v>187433</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>199</v>
+        <v>22</v>
       </c>
       <c r="H14" s="7">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="I14" s="7">
-        <v>134097</v>
+        <v>180724</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>201</v>
+        <v>26</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>202</v>
+        <v>22</v>
       </c>
       <c r="M14" s="7">
-        <v>432</v>
+        <v>509</v>
       </c>
       <c r="N14" s="7">
-        <v>272185</v>
+        <v>368157</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>119</v>
+        <v>190</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>204</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4155,153 +3756,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="D15" s="7">
-        <v>143273</v>
+        <v>188205</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="I15" s="7">
-        <v>136000</v>
+        <v>182339</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>441</v>
+        <v>512</v>
       </c>
       <c r="N15" s="7">
-        <v>279273</v>
+        <v>370544</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D16" s="7">
-        <v>1615</v>
+        <v>7422</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>205</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H16" s="7">
         <v>12</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
       <c r="I16" s="7">
-        <v>772</v>
+        <v>9524</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>195</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="M16" s="7">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="N16" s="7">
-        <v>2387</v>
+        <v>16946</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>254</v>
+        <v>954</v>
       </c>
       <c r="D17" s="7">
-        <v>180724</v>
+        <v>632923</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>212</v>
+        <v>20</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>21</v>
+        <v>201</v>
       </c>
       <c r="H17" s="7">
-        <v>255</v>
+        <v>945</v>
       </c>
       <c r="I17" s="7">
-        <v>187433</v>
+        <v>660157</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>21</v>
+        <v>204</v>
       </c>
       <c r="M17" s="7">
-        <v>509</v>
+        <v>1899</v>
       </c>
       <c r="N17" s="7">
-        <v>368157</v>
+        <v>1293079</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4310,217 +3911,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>256</v>
+        <v>965</v>
       </c>
       <c r="D18" s="7">
-        <v>182339</v>
+        <v>640345</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
-        <v>256</v>
+        <v>957</v>
       </c>
       <c r="I18" s="7">
-        <v>188205</v>
+        <v>669681</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
-        <v>512</v>
+        <v>1922</v>
       </c>
       <c r="N18" s="7">
-        <v>370544</v>
+        <v>1310025</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>12</v>
-      </c>
-      <c r="D19" s="7">
-        <v>9524</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="H19" s="7">
-        <v>11</v>
-      </c>
-      <c r="I19" s="7">
-        <v>7422</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="M19" s="7">
-        <v>23</v>
-      </c>
-      <c r="N19" s="7">
-        <v>16946</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>945</v>
-      </c>
-      <c r="D20" s="7">
-        <v>660156</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H20" s="7">
-        <v>954</v>
-      </c>
-      <c r="I20" s="7">
-        <v>632923</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1899</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1293079</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>957</v>
-      </c>
-      <c r="D21" s="7">
-        <v>669680</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>965</v>
-      </c>
-      <c r="I21" s="7">
-        <v>640345</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1922</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1310025</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>90</v>
+      <c r="A19" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4533,8 +3978,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1022C0BF-225B-4881-8CD0-F1447C76C8C1}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508FAAF6-1E49-4919-9EBB-E3F02AF20296}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4550,7 +3995,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4651,100 +4096,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1152</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>0</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <v>587</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>235</v>
-      </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>587</v>
+        <v>1152</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D5" s="7">
-        <v>4670</v>
+        <v>15902</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="I5" s="7">
-        <v>3976</v>
+        <v>21666</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>240</v>
+        <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M5" s="7">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="N5" s="7">
-        <v>8646</v>
+        <v>37568</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4753,54 +4198,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D6" s="7">
-        <v>4670</v>
+        <v>17054</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="I6" s="7">
-        <v>4563</v>
+        <v>21666</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="N6" s="7">
-        <v>9233</v>
+        <v>38720</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -4815,91 +4260,91 @@
         <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>92</v>
+        <v>219</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>507</v>
+        <v>3201</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>507</v>
+        <v>3201</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>50</v>
+        <v>219</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>222</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D8" s="7">
-        <v>15885</v>
+        <v>28975</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>94</v>
+        <v>224</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H8" s="7">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="I8" s="7">
-        <v>11830</v>
+        <v>46535</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="M8" s="7">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="N8" s="7">
-        <v>27714</v>
+        <v>75510</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>55</v>
+        <v>224</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>21</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4908,153 +4353,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D9" s="7">
-        <v>15885</v>
+        <v>28975</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="I9" s="7">
-        <v>12337</v>
+        <v>49736</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="N9" s="7">
-        <v>28221</v>
+        <v>78711</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>3132</v>
+        <v>1204</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>251</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>2515</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>12</v>
+        <v>231</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="M10" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N10" s="7">
-        <v>3132</v>
+        <v>3719</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="D11" s="7">
-        <v>45486</v>
+        <v>25032</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>259</v>
+        <v>22</v>
       </c>
       <c r="H11" s="7">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I11" s="7">
-        <v>29095</v>
+        <v>29165</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>21</v>
+        <v>238</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>23</v>
+        <v>170</v>
       </c>
       <c r="M11" s="7">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="N11" s="7">
-        <v>74581</v>
+        <v>54198</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5063,153 +4508,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="D12" s="7">
-        <v>48618</v>
+        <v>26236</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I12" s="7">
-        <v>29095</v>
+        <v>31680</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="N12" s="7">
-        <v>77713</v>
+        <v>57917</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>2460</v>
+        <v>540</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>1237</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>266</v>
+        <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="M13" s="7">
+        <v>1</v>
+      </c>
+      <c r="N13" s="7">
+        <v>540</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="M13" s="7">
-        <v>5</v>
-      </c>
-      <c r="N13" s="7">
-        <v>3698</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>269</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D14" s="7">
-        <v>27392</v>
+        <v>27509</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="H14" s="7">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I14" s="7">
-        <v>24084</v>
+        <v>28510</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>273</v>
+        <v>22</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M14" s="7">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="N14" s="7">
-        <v>51475</v>
+        <v>56019</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>277</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5218,153 +4663,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D15" s="7">
-        <v>29852</v>
+        <v>28049</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I15" s="7">
-        <v>25321</v>
+        <v>28510</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="N15" s="7">
-        <v>55173</v>
+        <v>56559</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>2896</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H16" s="7">
+        <v>7</v>
+      </c>
+      <c r="I16" s="7">
+        <v>5716</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="M16" s="7">
         <v>12</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7">
-        <v>542</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="M16" s="7">
-        <v>1</v>
-      </c>
       <c r="N16" s="7">
-        <v>542</v>
+        <v>8612</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>259</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>41</v>
+        <v>148</v>
       </c>
       <c r="D17" s="7">
-        <v>27401</v>
+        <v>97418</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>21</v>
+        <v>261</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="H17" s="7">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="I17" s="7">
-        <v>28065</v>
+        <v>125876</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>21</v>
+        <v>265</v>
       </c>
       <c r="M17" s="7">
-        <v>82</v>
+        <v>329</v>
       </c>
       <c r="N17" s="7">
-        <v>55466</v>
+        <v>223294</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>21</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5373,217 +4818,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="D18" s="7">
-        <v>27401</v>
+        <v>100314</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
-        <v>42</v>
+        <v>188</v>
       </c>
       <c r="I18" s="7">
-        <v>28607</v>
+        <v>131592</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
+        <v>341</v>
+      </c>
+      <c r="N18" s="7">
+        <v>231906</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>83</v>
       </c>
-      <c r="N18" s="7">
-        <v>56008</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>7</v>
-      </c>
-      <c r="D19" s="7">
-        <v>5592</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="H19" s="7">
-        <v>5</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2873</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="M19" s="7">
-        <v>12</v>
-      </c>
-      <c r="N19" s="7">
-        <v>8465</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>181</v>
-      </c>
-      <c r="D20" s="7">
-        <v>120833</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H20" s="7">
-        <v>148</v>
-      </c>
-      <c r="I20" s="7">
-        <v>97050</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M20" s="7">
-        <v>329</v>
-      </c>
-      <c r="N20" s="7">
-        <v>217883</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>188</v>
-      </c>
-      <c r="D21" s="7">
-        <v>126425</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>153</v>
-      </c>
-      <c r="I21" s="7">
-        <v>99923</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>341</v>
-      </c>
-      <c r="N21" s="7">
-        <v>226348</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>90</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
